--- a/php/vista/TEMP/Diario general.xlsx
+++ b/php/vista/TEMP/Diario general.xlsx
@@ -15,10 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
   <si>
     <r>
-      <t xml:space="preserve">Prismanet Profesional S.A. </t>
+      <t xml:space="preserve">EMPRESA PARA DESARROLLO </t>
     </r>
     <r>
       <rPr>
@@ -30,7 +30,7 @@
         <sz val="11"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">PRISMANET PROFESIONAL S.A.</t>
+      <t xml:space="preserve">VACA PRIETO WALTER JALIL</t>
     </r>
   </si>
   <si>
@@ -60,7 +60,7 @@
         <sz val="8"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">21:51
+      <t xml:space="preserve">22:46
 </t>
     </r>
     <r>
@@ -85,7 +85,7 @@
         <sz val="8"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">04-08-2021
+      <t xml:space="preserve">08-09-2021
 </t>
     </r>
     <r>
@@ -132,100 +132,355 @@
     <t>HABER</t>
   </si>
   <si>
-    <t>2021-01-13 CI-1000078</t>
-  </si>
-  <si>
-    <t>DEP. No. 7805826 UN EDUCATIVA JULIO PIERREGROSSE 1359 WV RELACIONADA</t>
-  </si>
-  <si>
-    <t>1.1.02.01</t>
-  </si>
-  <si>
-    <t>Banco del Pichincha Cta. Cte. 3422225804</t>
-  </si>
-  <si>
-    <t>2.1.12.01.01</t>
-  </si>
-  <si>
-    <t>Cuentas por pagar relacionadas</t>
-  </si>
-  <si>
-    <t>2021-01-14 CI-1000077</t>
-  </si>
-  <si>
-    <t>N/C TRANSFERENCIA INTERNET MORA ZAMBRANO MARIA RAFAELA	927</t>
-  </si>
-  <si>
-    <t>1.1.01.05</t>
-  </si>
-  <si>
-    <t>Caja Facturacion</t>
-  </si>
-  <si>
-    <t>2021-02-02 CI-2000074</t>
-  </si>
-  <si>
-    <t>DEP. No. 7672186 F. 930 GUEVARA Y HERRERA</t>
-  </si>
-  <si>
-    <t>2021-02-17 CI-2000075</t>
-  </si>
-  <si>
-    <t>DEP. No. 11485528 F. 958 VENRENTAL</t>
-  </si>
-  <si>
-    <t>2021-03-10 CI-3000048</t>
-  </si>
-  <si>
-    <t>DEP. No. 9360776 FACT. 932 GUEVARA Y HERRERA</t>
-  </si>
-  <si>
-    <t>2021-04-07 CI-4000057</t>
-  </si>
-  <si>
-    <t>DEP. No. 28703612 GUEVARA Y HERRERA FACT. 936</t>
-  </si>
-  <si>
-    <t>2021-04-29 CI-4000058</t>
-  </si>
-  <si>
-    <t>DEP. No. 26648788 GUEVARA Y HERRERA FACT. 952</t>
-  </si>
-  <si>
-    <t>2021-05-18 CI-5000057</t>
-  </si>
-  <si>
-    <t>DEP. No. 28982343 GUEVARA Y HERRERA FACT. 954</t>
-  </si>
-  <si>
-    <t>2021-05-27 CI-5000058</t>
+    <t>2021-03-08 CD-3000001</t>
   </si>
   <si>
     <t>.</t>
   </si>
   <si>
-    <t>2021-06-02 CI-6000045</t>
-  </si>
-  <si>
-    <t>DEP. No. 15563318 GUEVARA Y HERRERA FACT. 938</t>
-  </si>
-  <si>
-    <t>2021-06-30 CI-6000046</t>
-  </si>
-  <si>
-    <t>DEP. No. 9494671 UNIDAD EDUCATIVA JULIO PIERREGROSSE F. 1515 / CTA. POR PAGAR VACA WALTER</t>
-  </si>
-  <si>
-    <t>2021-07-14 CI-7000037</t>
-  </si>
-  <si>
-    <t>DEP. No. 11615372 GUEVARA Y HERRERA ASOCIADOS F. 956</t>
-  </si>
-  <si>
-    <t>2021-07-21 CI-7000038</t>
-  </si>
-  <si>
-    <t>DEP. No. 14552225 GUEVARA Y HERRERA ASOCIADOS F. 957</t>
+    <t>1.1.01.02.01.001</t>
+  </si>
+  <si>
+    <t>Banco Pichincha</t>
+  </si>
+  <si>
+    <t>1.1.01.02.01.002</t>
+  </si>
+  <si>
+    <t>Banco Guayaquil</t>
+  </si>
+  <si>
+    <t>2021-03-08 CD-3000003</t>
+  </si>
+  <si>
+    <t>dddd</t>
+  </si>
+  <si>
+    <t>2021-03-08 CD-3000041</t>
+  </si>
+  <si>
+    <t>1.1.01.02.01.003</t>
+  </si>
+  <si>
+    <t>Banco Solidario</t>
+  </si>
+  <si>
+    <t>2021-03-08 CD-3000042</t>
+  </si>
+  <si>
+    <t>ddddd</t>
+  </si>
+  <si>
+    <t>2021-03-08 CD-3000043</t>
+  </si>
+  <si>
+    <t>prueba numero 43</t>
+  </si>
+  <si>
+    <t>2021-03-08 CD-3000044</t>
+  </si>
+  <si>
+    <t>2021-03-24 CD-3000047</t>
+  </si>
+  <si>
+    <t>prueba de comprobante</t>
+  </si>
+  <si>
+    <t>1.1.04.01.01.009</t>
+  </si>
+  <si>
+    <t>Cuentas por cobrar - Mayor</t>
+  </si>
+  <si>
+    <t>2.1.08.01.01.012</t>
+  </si>
+  <si>
+    <t>RET IR - 8% Predomina el intelecto</t>
+  </si>
+  <si>
+    <t>2021-03-24 CD-3000048</t>
+  </si>
+  <si>
+    <t>prueba trannsacciones</t>
+  </si>
+  <si>
+    <t>1.1.04.01.01.008</t>
+  </si>
+  <si>
+    <t>Cuentas por cobrar - Retail</t>
+  </si>
+  <si>
+    <t>2.1.08.01.01.011</t>
+  </si>
+  <si>
+    <t>RET IR - 10% Honorarios profesionales y dietas</t>
+  </si>
+  <si>
+    <t>2021-03-24 CD-3000049</t>
+  </si>
+  <si>
+    <t>2021-03-24 CD-3000050</t>
+  </si>
+  <si>
+    <t>2021-03-25 CD-3000051</t>
+  </si>
+  <si>
+    <t>1.1.01.01.01.001</t>
+  </si>
+  <si>
+    <t>Fondos fijos oficina</t>
+  </si>
+  <si>
+    <t>2021-03-25 CD-3000052</t>
+  </si>
+  <si>
+    <t>2021-03-25 CD-3000053</t>
+  </si>
+  <si>
+    <t>2021-03-25 CD-3000054</t>
+  </si>
+  <si>
+    <t>2021-03-25 CD-3000055</t>
+  </si>
+  <si>
+    <t>2021-03-25 CD-3000056</t>
+  </si>
+  <si>
+    <t>2021-03-25 CD-3000057</t>
+  </si>
+  <si>
+    <t>1.1.04.01.01.010</t>
+  </si>
+  <si>
+    <t>Cuentas por cobrar - Industrial</t>
+  </si>
+  <si>
+    <t>2021-04-07 CD-4000002</t>
+  </si>
+  <si>
+    <t>2021-04-07 CD-4000003</t>
+  </si>
+  <si>
+    <t>2021-04-07 CD-4000004</t>
+  </si>
+  <si>
+    <t>2.1.08.01.01.006</t>
+  </si>
+  <si>
+    <t>RET IVA - 70% Por la prestaciÃ³n de otros servicios</t>
+  </si>
+  <si>
+    <t>2.1.08.01.01.003</t>
+  </si>
+  <si>
+    <t>RET IVA - 10% Bienes</t>
+  </si>
+  <si>
+    <t>2021-05-13 CD-5000001</t>
+  </si>
+  <si>
+    <t>2021-05-19 CD-5000002</t>
+  </si>
+  <si>
+    <t>2021-05-19 CD-5000003</t>
+  </si>
+  <si>
+    <t>2021-05-27 CD-5000004</t>
+  </si>
+  <si>
+    <t>2021-05-27 CD-5000005</t>
+  </si>
+  <si>
+    <t>2021-05-29 CD-5000006</t>
+  </si>
+  <si>
+    <t>2021-06-01 CD-6000004</t>
+  </si>
+  <si>
+    <t>1.1.01.01.01.002</t>
+  </si>
+  <si>
+    <t>Fondos fijos tiendas</t>
+  </si>
+  <si>
+    <t>2021-06-04 CD-6000085</t>
+  </si>
+  <si>
+    <t>2021-06-05 CD-6000084</t>
+  </si>
+  <si>
+    <t>2021-06-05 CD-6000100</t>
+  </si>
+  <si>
+    <t>1.1.05.01.01.001</t>
+  </si>
+  <si>
+    <t>Anticipos proveedores - Retail</t>
+  </si>
+  <si>
+    <t>2021-06-05 CD-6000101</t>
+  </si>
+  <si>
+    <t>2021-06-05 CD-6000115</t>
+  </si>
+  <si>
+    <t>2021-06-05 CD-6000118</t>
+  </si>
+  <si>
+    <t>2021-06-05 CD-6000121</t>
+  </si>
+  <si>
+    <t>2021-06-05 CD-6000122</t>
+  </si>
+  <si>
+    <t>2021-06-05 CD-6000123</t>
+  </si>
+  <si>
+    <t>2021-06-05 CD-6000124</t>
+  </si>
+  <si>
+    <t>2021-06-05 CD-6000125</t>
+  </si>
+  <si>
+    <t>2021-06-09 CD-6000126</t>
+  </si>
+  <si>
+    <t>2021-06-09 CD-6000127</t>
+  </si>
+  <si>
+    <t>2021-06-09 CD-6000133</t>
+  </si>
+  <si>
+    <t>2021-06-09 CD-6000134</t>
+  </si>
+  <si>
+    <t>2021-06-09 CD-6000136</t>
+  </si>
+  <si>
+    <t>2021-06-09 CD-6000137</t>
+  </si>
+  <si>
+    <t>2021-06-09 CD-6000155</t>
+  </si>
+  <si>
+    <t>2021-06-10 CD-6000163</t>
+  </si>
+  <si>
+    <t>2021-06-10 CD-6000164</t>
+  </si>
+  <si>
+    <t>2021-06-10 CD-6000166</t>
+  </si>
+  <si>
+    <t>2021-06-10 CD-6000171</t>
+  </si>
+  <si>
+    <t>2021-06-10 CD-6000181</t>
+  </si>
+  <si>
+    <t>2021-06-10 CD-6000184</t>
+  </si>
+  <si>
+    <t>2021-06-10 CD-6000185</t>
+  </si>
+  <si>
+    <t>2021-06-10 CD-6000186</t>
+  </si>
+  <si>
+    <t>2021-06-10 CD-6000187</t>
+  </si>
+  <si>
+    <t>2021-06-10 CD-6000188</t>
+  </si>
+  <si>
+    <t>2021-06-10 CD-6000191</t>
+  </si>
+  <si>
+    <t>2021-06-10 CD-6000194</t>
+  </si>
+  <si>
+    <t>2021-06-10 CD-6000195</t>
+  </si>
+  <si>
+    <t>2021-06-10 CD-6000196</t>
+  </si>
+  <si>
+    <t>2021-06-10 CD-6000197</t>
+  </si>
+  <si>
+    <t>2021-06-10 CD-6000198</t>
+  </si>
+  <si>
+    <t>2.1.08.01.01.005</t>
+  </si>
+  <si>
+    <t>RET IVA - 30% Por la compra de bienes</t>
+  </si>
+  <si>
+    <t>2021-06-10 CD-6000199</t>
+  </si>
+  <si>
+    <t>2021-06-11 CD-6000201</t>
+  </si>
+  <si>
+    <t>2021-06-11 CD-6000211</t>
+  </si>
+  <si>
+    <t>2021-06-20 CD-6000219</t>
+  </si>
+  <si>
+    <t>2021-06-24 CD-6000213</t>
+  </si>
+  <si>
+    <t>1.1.04.01.01.003</t>
+  </si>
+  <si>
+    <t>Tarjetas de crÃ©dito - Diners</t>
+  </si>
+  <si>
+    <t>2021-06-26 CD-6000218</t>
+  </si>
+  <si>
+    <t>2021-07-05 CD-7001550</t>
+  </si>
+  <si>
+    <t>2.1.08.01.01.004</t>
+  </si>
+  <si>
+    <t>RET IVA - 20% Servicios</t>
+  </si>
+  <si>
+    <t>2021-07-05 CD-7001551</t>
+  </si>
+  <si>
+    <t>2021-07-05 CD-7001553</t>
+  </si>
+  <si>
+    <t>2021-07-05 CD-7001562</t>
+  </si>
+  <si>
+    <t>2021-07-05 CD-7001564</t>
+  </si>
+  <si>
+    <t>2021-07-05 CD-7001565</t>
+  </si>
+  <si>
+    <t>2021-07-05 CD-7001566</t>
+  </si>
+  <si>
+    <t>2021-07-08 CD-7001567</t>
+  </si>
+  <si>
+    <t>2021-07-08 CD-7001568</t>
+  </si>
+  <si>
+    <t>2021-07-13 CD-7001570</t>
+  </si>
+  <si>
+    <t>2021-07-27 CD-7001569</t>
+  </si>
+  <si>
+    <t>2021-08-02 CD-8000654</t>
   </si>
   <si>
     <t>Total</t>
@@ -370,7 +625,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="971550" cy="342900"/>
+    <xdr:ext cx="457200" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="Logo" descr="Logo"/>
@@ -716,10 +971,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AZ42"/>
+  <dimension ref="A1:AZ314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="F312" sqref="F312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -738,7 +993,7 @@
       <c r="B1" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Prismanet Profesional S.A. </t>
+            <t xml:space="preserve">EMPRESA PARA DESARROLLO </t>
           </r>
           <r>
             <rPr>
@@ -750,7 +1005,7 @@
               <sz val="11"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">PRISMANET PROFESIONAL S.A.</t>
+            <t xml:space="preserve">VACA PRIETO WALTER JALIL</t>
           </r>
         </is>
       </c>
@@ -785,7 +1040,7 @@
               <sz val="8"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">21:51
+            <t xml:space="preserve">22:46
 </t>
           </r>
           <r>
@@ -810,7 +1065,7 @@
               <sz val="8"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">04-08-2021
+            <t xml:space="preserve">08-09-2021
 </t>
           </r>
           <r>
@@ -874,7 +1129,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="6">
-        <v>1311.05</v>
+        <v>25.32</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
@@ -893,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="6">
-        <v>1311.05</v>
+        <v>25.32</v>
       </c>
     </row>
     <row r="6" spans="1:52">
@@ -910,7 +1165,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="6">
-        <v>343</v>
+        <v>25.36</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
@@ -920,24 +1175,24 @@
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
       </c>
       <c r="F7" s="6">
-        <v>343</v>
+        <v>25.36</v>
       </c>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>10</v>
@@ -946,7 +1201,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="6">
-        <v>84</v>
+        <v>25.12</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
@@ -956,24 +1211,24 @@
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" s="6">
         <v>0</v>
       </c>
       <c r="F10" s="6">
-        <v>84</v>
+        <v>25.12</v>
       </c>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>10</v>
@@ -982,34 +1237,34 @@
         <v>11</v>
       </c>
       <c r="E12" s="6">
-        <v>2559.6</v>
+        <v>0</v>
       </c>
       <c r="F12" s="6">
-        <v>0</v>
+        <v>45.21</v>
       </c>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13" s="6">
-        <v>0</v>
+        <v>45.21</v>
       </c>
       <c r="F13" s="6">
-        <v>2559.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>10</v>
@@ -1018,7 +1273,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="6">
-        <v>84</v>
+        <v>25.36</v>
       </c>
       <c r="F15" s="6">
         <v>0</v>
@@ -1028,24 +1283,24 @@
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E16" s="6">
         <v>0</v>
       </c>
       <c r="F16" s="6">
-        <v>84</v>
+        <v>25.36</v>
       </c>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>10</v>
@@ -1054,7 +1309,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="6">
-        <v>84</v>
+        <v>47.58</v>
       </c>
       <c r="F18" s="6">
         <v>0</v>
@@ -1064,97 +1319,109 @@
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E19" s="6">
         <v>0</v>
       </c>
       <c r="F19" s="6">
-        <v>84</v>
+        <v>47.58</v>
       </c>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="E21" s="6">
-        <v>76.39</v>
+        <v>0</v>
       </c>
       <c r="F21" s="6">
-        <v>0</v>
+        <v>45.25</v>
       </c>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E22" s="6">
         <v>0</v>
       </c>
       <c r="F22" s="6">
-        <v>76.39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:52">
-      <c r="A24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="6" t="s">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:52">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="6">
-        <v>76.39</v>
-      </c>
-      <c r="F24" s="6">
+      <c r="E23" s="6">
+        <v>45.36</v>
+      </c>
+      <c r="F23" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:52">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="C25" s="6" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
       </c>
       <c r="F25" s="6">
-        <v>76.39</v>
+        <v>45.21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>2.08</v>
       </c>
     </row>
     <row r="27" spans="1:52">
-      <c r="A27" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="6" t="s">
         <v>10</v>
       </c>
@@ -1162,35 +1429,35 @@
         <v>11</v>
       </c>
       <c r="E27" s="6">
-        <v>40.34</v>
+        <v>47.29</v>
       </c>
       <c r="F27" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:52">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="6">
-        <v>0</v>
-      </c>
-      <c r="F28" s="6">
-        <v>40.34</v>
+    <row r="29" spans="1:52">
+      <c r="A29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.35</v>
       </c>
     </row>
     <row r="30" spans="1:52">
-      <c r="A30" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="6" t="s">
         <v>10</v>
       </c>
@@ -1198,35 +1465,35 @@
         <v>11</v>
       </c>
       <c r="E30" s="6">
-        <v>84</v>
+        <v>0.35</v>
       </c>
       <c r="F30" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:52">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="6">
-        <v>0</v>
-      </c>
-      <c r="F31" s="6">
-        <v>84</v>
+    <row r="32" spans="1:52">
+      <c r="A32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6">
+        <v>1.37</v>
       </c>
     </row>
     <row r="33" spans="1:52">
-      <c r="A33" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="6" t="s">
         <v>10</v>
       </c>
@@ -1234,109 +1501,3657 @@
         <v>11</v>
       </c>
       <c r="E33" s="6">
-        <v>172.96</v>
+        <v>1.37</v>
       </c>
       <c r="F33" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:52">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="6">
-        <v>0</v>
-      </c>
-      <c r="F34" s="6">
-        <v>172.96</v>
+    <row r="35" spans="1:52">
+      <c r="A35" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0.82</v>
       </c>
     </row>
     <row r="36" spans="1:52">
-      <c r="A36" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="6" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E36" s="6">
-        <v>76.39</v>
+        <v>0.82</v>
       </c>
       <c r="F36" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:52">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="6">
-        <v>0</v>
-      </c>
-      <c r="F37" s="6">
-        <v>76.39</v>
+    <row r="38" spans="1:52">
+      <c r="A38" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0.77</v>
       </c>
     </row>
     <row r="39" spans="1:52">
-      <c r="A39" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
       <c r="C39" s="6" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E39" s="6">
-        <v>76.39</v>
+        <v>0</v>
       </c>
       <c r="F39" s="6">
-        <v>0</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="40" spans="1:52">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="6" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D40" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="6">
+        <v>25.36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:52">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0</v>
+      </c>
+      <c r="F41" s="6">
+        <v>25.36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:52">
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="6">
+        <v>26.13</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:52">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="6">
+        <v>26.13</v>
+      </c>
+      <c r="F43" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:52">
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0</v>
+      </c>
+      <c r="F44" s="6">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:52">
+      <c r="A45" s="6"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0</v>
+      </c>
+      <c r="F45" s="6">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:52">
+      <c r="A46" s="6"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0.77</v>
+      </c>
+      <c r="F46" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:52">
+      <c r="A47" s="6"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0.77</v>
+      </c>
+      <c r="F47" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:52">
+      <c r="A49" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:52">
+      <c r="A50" s="6"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0.62</v>
+      </c>
+      <c r="F50" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:52">
+      <c r="A52" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0</v>
+      </c>
+      <c r="F52" s="6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:52">
+      <c r="A53" s="6"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="F53" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:52">
+      <c r="A55" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0</v>
+      </c>
+      <c r="F55" s="6">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:52">
+      <c r="A56" s="6"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0.62</v>
+      </c>
+      <c r="F56" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:52">
+      <c r="A58" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" s="6">
+        <v>0</v>
+      </c>
+      <c r="F58" s="6">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:52">
+      <c r="A59" s="6"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0.62</v>
+      </c>
+      <c r="F59" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:52">
+      <c r="A61" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E61" s="6">
+        <v>12.36</v>
+      </c>
+      <c r="F61" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:52">
+      <c r="A62" s="6"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62" s="6">
+        <v>0</v>
+      </c>
+      <c r="F62" s="6">
+        <v>12.36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:52">
+      <c r="A64" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E64" s="6">
+        <v>0</v>
+      </c>
+      <c r="F64" s="6">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:52">
+      <c r="A65" s="6"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65" s="6">
+        <v>0.62</v>
+      </c>
+      <c r="F65" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:52">
+      <c r="A67" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E67" s="6">
+        <v>0</v>
+      </c>
+      <c r="F67" s="6">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:52">
+      <c r="A68" s="6"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E68" s="6">
+        <v>1.57</v>
+      </c>
+      <c r="F68" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:52">
+      <c r="A70" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E70" s="6">
+        <v>0</v>
+      </c>
+      <c r="F70" s="6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:52">
+      <c r="A71" s="6"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E71" s="6">
+        <v>0</v>
+      </c>
+      <c r="F71" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="72" spans="1:52">
+      <c r="A72" s="6"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72" s="6">
+        <v>0</v>
+      </c>
+      <c r="F72" s="6">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:52">
+      <c r="A73" s="6"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E73" s="6">
+        <v>0.94</v>
+      </c>
+      <c r="F73" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:52">
+      <c r="A75" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E75" s="6">
+        <v>0</v>
+      </c>
+      <c r="F75" s="6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="76" spans="1:52">
+      <c r="A76" s="6"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E76" s="6">
+        <v>0</v>
+      </c>
+      <c r="F76" s="6">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:52">
+      <c r="A77" s="6"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="F77" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:52">
+      <c r="A79" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E79" s="6">
+        <v>0</v>
+      </c>
+      <c r="F79" s="6">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="80" spans="1:52">
+      <c r="A80" s="6"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="6">
+        <v>17.51</v>
+      </c>
+      <c r="F80" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:52">
+      <c r="A81" s="6"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E81" s="6">
+        <v>0</v>
+      </c>
+      <c r="F81" s="6">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:52">
+      <c r="A83" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E83" s="6">
+        <v>0</v>
+      </c>
+      <c r="F83" s="6">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="84" spans="1:52">
+      <c r="A84" s="6"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E84" s="6">
+        <v>0</v>
+      </c>
+      <c r="F84" s="6">
+        <v>17.61</v>
+      </c>
+    </row>
+    <row r="85" spans="1:52">
+      <c r="A85" s="6"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="6">
+        <v>18.55</v>
+      </c>
+      <c r="F85" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:52">
+      <c r="A87" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="6">
+        <v>58.65</v>
+      </c>
+      <c r="F87" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:52">
+      <c r="A88" s="6"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E88" s="6">
+        <v>21.45</v>
+      </c>
+      <c r="F88" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:52">
+      <c r="A89" s="6"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="6">
+        <v>0</v>
+      </c>
+      <c r="F89" s="6">
+        <v>80.1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:52">
+      <c r="A91" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E91" s="6">
+        <v>0</v>
+      </c>
+      <c r="F91" s="6">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="92" spans="1:52">
+      <c r="A92" s="6"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E92" s="6">
+        <v>0</v>
+      </c>
+      <c r="F92" s="6">
+        <v>257.02</v>
+      </c>
+    </row>
+    <row r="93" spans="1:52">
+      <c r="A93" s="6"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="6">
+        <v>257.08</v>
+      </c>
+      <c r="F93" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:52">
+      <c r="A95" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" s="6">
+        <v>56.58</v>
+      </c>
+      <c r="F95" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:52">
+      <c r="A96" s="6"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E96" s="6">
+        <v>0</v>
+      </c>
+      <c r="F96" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:52">
+      <c r="A97" s="6"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E97" s="6">
+        <v>0</v>
+      </c>
+      <c r="F97" s="6">
+        <v>12.86</v>
+      </c>
+    </row>
+    <row r="98" spans="1:52">
+      <c r="A98" s="6"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="6">
-        <v>0</v>
-      </c>
-      <c r="F40" s="6">
-        <v>76.39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:52">
-      <c r="D42" s="2" t="s">
+      <c r="D98" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98" s="6">
+        <v>0</v>
+      </c>
+      <c r="F98" s="6">
+        <v>43.42</v>
+      </c>
+    </row>
+    <row r="100" spans="1:52">
+      <c r="A100" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="6">
+        <v>20.25</v>
+      </c>
+      <c r="F100" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:52">
+      <c r="A101" s="6"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E101" s="6">
+        <v>0</v>
+      </c>
+      <c r="F101" s="6">
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:52">
+      <c r="A103" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E103" s="6">
+        <v>0</v>
+      </c>
+      <c r="F103" s="6">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="104" spans="1:52">
+      <c r="A104" s="6"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E104" s="6">
+        <v>0</v>
+      </c>
+      <c r="F104" s="6">
+        <v>4.44</v>
+      </c>
+    </row>
+    <row r="105" spans="1:52">
+      <c r="A105" s="6"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="6">
+        <v>4.48</v>
+      </c>
+      <c r="F105" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:52">
+      <c r="A107" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E107" s="6">
+        <v>0</v>
+      </c>
+      <c r="F107" s="6">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="108" spans="1:52">
+      <c r="A108" s="6"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E108" s="6">
+        <v>0</v>
+      </c>
+      <c r="F108" s="6">
+        <v>4.44</v>
+      </c>
+    </row>
+    <row r="109" spans="1:52">
+      <c r="A109" s="6"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="6">
+        <v>4.48</v>
+      </c>
+      <c r="F109" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:52">
+      <c r="A111" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="6">
+        <v>78</v>
+      </c>
+      <c r="F111" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:52">
+      <c r="A112" s="6"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="6">
+        <v>0</v>
+      </c>
+      <c r="F112" s="6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="114" spans="1:52">
+      <c r="A114" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="6">
+        <v>89</v>
+      </c>
+      <c r="F114" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:52">
+      <c r="A115" s="6"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" s="6">
+        <v>0</v>
+      </c>
+      <c r="F115" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="117" spans="1:52">
+      <c r="A117" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="6">
+        <v>77</v>
+      </c>
+      <c r="F117" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:52">
+      <c r="A118" s="6"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" s="6">
+        <v>0</v>
+      </c>
+      <c r="F118" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="120" spans="1:52">
+      <c r="A120" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="6">
+        <v>21</v>
+      </c>
+      <c r="F120" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:52">
+      <c r="A121" s="6"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" s="6">
+        <v>0</v>
+      </c>
+      <c r="F121" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123" spans="1:52">
+      <c r="A123" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="6">
+        <v>21</v>
+      </c>
+      <c r="F123" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:52">
+      <c r="A124" s="6"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" s="6">
+        <v>0</v>
+      </c>
+      <c r="F124" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126" spans="1:52">
+      <c r="A126" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E126" s="6">
+        <v>0</v>
+      </c>
+      <c r="F126" s="6">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="127" spans="1:52">
+      <c r="A127" s="6"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E127" s="6">
+        <v>0</v>
+      </c>
+      <c r="F127" s="6">
+        <v>10.69</v>
+      </c>
+    </row>
+    <row r="128" spans="1:52">
+      <c r="A128" s="6"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" s="6">
+        <v>11</v>
+      </c>
+      <c r="F128" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:52">
+      <c r="A130" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="6">
+        <v>93</v>
+      </c>
+      <c r="F130" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:52">
+      <c r="A131" s="6"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E131" s="6">
+        <v>0</v>
+      </c>
+      <c r="F131" s="6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="133" spans="1:52">
+      <c r="A133" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E133" s="6">
+        <v>0</v>
+      </c>
+      <c r="F133" s="6">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="134" spans="1:52">
+      <c r="A134" s="6"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E134" s="6">
+        <v>0</v>
+      </c>
+      <c r="F134" s="6">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="135" spans="1:52">
+      <c r="A135" s="6"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E135" s="6">
+        <v>2.39</v>
+      </c>
+      <c r="F135" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:52">
+      <c r="A137" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E137" s="6">
+        <v>0</v>
+      </c>
+      <c r="F137" s="6">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="138" spans="1:52">
+      <c r="A138" s="6"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E138" s="6">
+        <v>0</v>
+      </c>
+      <c r="F138" s="6">
+        <v>15.82</v>
+      </c>
+    </row>
+    <row r="139" spans="1:52">
+      <c r="A139" s="6"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E139" s="6">
+        <v>16.87</v>
+      </c>
+      <c r="F139" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:52">
+      <c r="A141" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E141" s="6">
+        <v>0</v>
+      </c>
+      <c r="F141" s="6">
+        <v>54.73</v>
+      </c>
+    </row>
+    <row r="142" spans="1:52">
+      <c r="A142" s="6"/>
+      <c r="B142" s="7"/>
+      <c r="C142" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E142" s="6">
+        <v>0</v>
+      </c>
+      <c r="F142" s="6">
+        <v>463.89</v>
+      </c>
+    </row>
+    <row r="143" spans="1:52">
+      <c r="A143" s="6"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E143" s="6">
+        <v>518.62</v>
+      </c>
+      <c r="F143" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:52">
+      <c r="A145" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E145" s="6">
+        <v>0</v>
+      </c>
+      <c r="F145" s="6">
+        <v>54.73</v>
+      </c>
+    </row>
+    <row r="146" spans="1:52">
+      <c r="A146" s="6"/>
+      <c r="B146" s="7"/>
+      <c r="C146" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E146" s="6">
+        <v>0</v>
+      </c>
+      <c r="F146" s="6">
+        <v>463.89</v>
+      </c>
+    </row>
+    <row r="147" spans="1:52">
+      <c r="A147" s="6"/>
+      <c r="B147" s="7"/>
+      <c r="C147" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E147" s="6">
+        <v>518.62</v>
+      </c>
+      <c r="F147" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:52">
+      <c r="A149" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E149" s="6">
+        <v>0</v>
+      </c>
+      <c r="F149" s="6">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="150" spans="1:52">
+      <c r="A150" s="6"/>
+      <c r="B150" s="7"/>
+      <c r="C150" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E150" s="6">
+        <v>0</v>
+      </c>
+      <c r="F150" s="6">
+        <v>18.71</v>
+      </c>
+    </row>
+    <row r="151" spans="1:52">
+      <c r="A151" s="6"/>
+      <c r="B151" s="7"/>
+      <c r="C151" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E151" s="6">
+        <v>19.76</v>
+      </c>
+      <c r="F151" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:52">
+      <c r="A153" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E153" s="6">
+        <v>0</v>
+      </c>
+      <c r="F153" s="6">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="154" spans="1:52">
+      <c r="A154" s="6"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E154" s="6">
+        <v>0</v>
+      </c>
+      <c r="F154" s="6">
+        <v>18.71</v>
+      </c>
+    </row>
+    <row r="155" spans="1:52">
+      <c r="A155" s="6"/>
+      <c r="B155" s="7"/>
+      <c r="C155" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E155" s="6">
+        <v>19.76</v>
+      </c>
+      <c r="F155" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:52">
+      <c r="A157" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E157" s="6">
+        <v>0</v>
+      </c>
+      <c r="F157" s="6">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="158" spans="1:52">
+      <c r="A158" s="6"/>
+      <c r="B158" s="7"/>
+      <c r="C158" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E158" s="6">
+        <v>0</v>
+      </c>
+      <c r="F158" s="6">
+        <v>13.82</v>
+      </c>
+    </row>
+    <row r="159" spans="1:52">
+      <c r="A159" s="6"/>
+      <c r="B159" s="7"/>
+      <c r="C159" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E159" s="6">
+        <v>14.4</v>
+      </c>
+      <c r="F159" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:52">
+      <c r="A161" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E161" s="6">
+        <v>0</v>
+      </c>
+      <c r="F161" s="6">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="162" spans="1:52">
+      <c r="A162" s="6"/>
+      <c r="B162" s="7"/>
+      <c r="C162" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E162" s="6">
+        <v>0</v>
+      </c>
+      <c r="F162" s="6">
+        <v>13.82</v>
+      </c>
+    </row>
+    <row r="163" spans="1:52">
+      <c r="A163" s="6"/>
+      <c r="B163" s="7"/>
+      <c r="C163" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E163" s="6">
+        <v>14.4</v>
+      </c>
+      <c r="F163" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:52">
+      <c r="A165" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E165" s="6">
+        <v>0</v>
+      </c>
+      <c r="F165" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:52">
+      <c r="A166" s="6"/>
+      <c r="B166" s="7"/>
+      <c r="C166" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E166" s="6">
+        <v>0</v>
+      </c>
+      <c r="F166" s="6">
+        <v>92.31</v>
+      </c>
+    </row>
+    <row r="167" spans="1:52">
+      <c r="A167" s="6"/>
+      <c r="B167" s="7"/>
+      <c r="C167" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E167" s="6">
+        <v>97.31</v>
+      </c>
+      <c r="F167" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:52">
+      <c r="A169" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E169" s="6">
+        <v>0</v>
+      </c>
+      <c r="F169" s="6">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="170" spans="1:52">
+      <c r="A170" s="6"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E170" s="6">
+        <v>0</v>
+      </c>
+      <c r="F170" s="6">
+        <v>19.82</v>
+      </c>
+    </row>
+    <row r="171" spans="1:52">
+      <c r="A171" s="6"/>
+      <c r="B171" s="7"/>
+      <c r="C171" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E171" s="6">
+        <v>20.73</v>
+      </c>
+      <c r="F171" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:52">
+      <c r="A173" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E173" s="6">
+        <v>0</v>
+      </c>
+      <c r="F173" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:52">
+      <c r="A174" s="6"/>
+      <c r="B174" s="7"/>
+      <c r="C174" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E174" s="6">
+        <v>0</v>
+      </c>
+      <c r="F174" s="6">
+        <v>20.62</v>
+      </c>
+    </row>
+    <row r="175" spans="1:52">
+      <c r="A175" s="6"/>
+      <c r="B175" s="7"/>
+      <c r="C175" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E175" s="6">
+        <v>21.52</v>
+      </c>
+      <c r="F175" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:52">
+      <c r="A177" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E177" s="6">
+        <v>0</v>
+      </c>
+      <c r="F177" s="6">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="178" spans="1:52">
+      <c r="A178" s="6"/>
+      <c r="B178" s="7"/>
+      <c r="C178" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E178" s="6">
+        <v>0</v>
+      </c>
+      <c r="F178" s="6">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="179" spans="1:52">
+      <c r="A179" s="6"/>
+      <c r="B179" s="7"/>
+      <c r="C179" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D179" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E179" s="6">
+        <v>13.79</v>
+      </c>
+      <c r="F179" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:52">
+      <c r="A181" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E181" s="6">
+        <v>0</v>
+      </c>
+      <c r="F181" s="6">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="182" spans="1:52">
+      <c r="A182" s="6"/>
+      <c r="B182" s="7"/>
+      <c r="C182" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E182" s="6">
+        <v>0</v>
+      </c>
+      <c r="F182" s="6">
+        <v>14.89</v>
+      </c>
+    </row>
+    <row r="183" spans="1:52">
+      <c r="A183" s="6"/>
+      <c r="B183" s="7"/>
+      <c r="C183" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E183" s="6">
+        <v>15.43</v>
+      </c>
+      <c r="F183" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:52">
+      <c r="A185" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E185" s="6">
+        <v>0</v>
+      </c>
+      <c r="F185" s="6">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="186" spans="1:52">
+      <c r="A186" s="6"/>
+      <c r="B186" s="7"/>
+      <c r="C186" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D186" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E186" s="6">
+        <v>0</v>
+      </c>
+      <c r="F186" s="6">
+        <v>9.21</v>
+      </c>
+    </row>
+    <row r="187" spans="1:52">
+      <c r="A187" s="6"/>
+      <c r="B187" s="7"/>
+      <c r="C187" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E187" s="6">
+        <v>9.7</v>
+      </c>
+      <c r="F187" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:52">
+      <c r="A189" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E189" s="6">
+        <v>0</v>
+      </c>
+      <c r="F189" s="6">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="190" spans="1:52">
+      <c r="A190" s="6"/>
+      <c r="B190" s="7"/>
+      <c r="C190" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E190" s="6">
+        <v>0</v>
+      </c>
+      <c r="F190" s="6">
+        <v>87.57</v>
+      </c>
+    </row>
+    <row r="191" spans="1:52">
+      <c r="A191" s="6"/>
+      <c r="B191" s="7"/>
+      <c r="C191" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E191" s="6">
+        <v>88.11</v>
+      </c>
+      <c r="F191" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:52">
+      <c r="A193" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E193" s="6">
+        <v>0</v>
+      </c>
+      <c r="F193" s="6">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="194" spans="1:52">
+      <c r="A194" s="6"/>
+      <c r="B194" s="7"/>
+      <c r="C194" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D194" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E194" s="6">
+        <v>0</v>
+      </c>
+      <c r="F194" s="6">
+        <v>14.27</v>
+      </c>
+    </row>
+    <row r="195" spans="1:52">
+      <c r="A195" s="6"/>
+      <c r="B195" s="7"/>
+      <c r="C195" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D195" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E195" s="6">
+        <v>14.9</v>
+      </c>
+      <c r="F195" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:52">
+      <c r="A197" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D197" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E197" s="6">
+        <v>0</v>
+      </c>
+      <c r="F197" s="6">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="198" spans="1:52">
+      <c r="A198" s="6"/>
+      <c r="B198" s="7"/>
+      <c r="C198" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D198" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E198" s="6">
+        <v>0</v>
+      </c>
+      <c r="F198" s="6">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:52">
+      <c r="A199" s="6"/>
+      <c r="B199" s="7"/>
+      <c r="C199" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D199" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E199" s="6">
+        <v>12.84</v>
+      </c>
+      <c r="F199" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:52">
+      <c r="A201" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D201" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E201" s="6">
+        <v>0</v>
+      </c>
+      <c r="F201" s="6">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="202" spans="1:52">
+      <c r="A202" s="6"/>
+      <c r="B202" s="7"/>
+      <c r="C202" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D202" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E202" s="6">
+        <v>0</v>
+      </c>
+      <c r="F202" s="6">
+        <v>51.29</v>
+      </c>
+    </row>
+    <row r="203" spans="1:52">
+      <c r="A203" s="6"/>
+      <c r="B203" s="7"/>
+      <c r="C203" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D203" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E203" s="6">
+        <v>51.83</v>
+      </c>
+      <c r="F203" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:52">
+      <c r="A205" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D205" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E205" s="6">
+        <v>0</v>
+      </c>
+      <c r="F205" s="6">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="206" spans="1:52">
+      <c r="A206" s="6"/>
+      <c r="B206" s="7"/>
+      <c r="C206" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D206" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E206" s="6">
+        <v>0</v>
+      </c>
+      <c r="F206" s="6">
+        <v>10.89</v>
+      </c>
+    </row>
+    <row r="207" spans="1:52">
+      <c r="A207" s="6"/>
+      <c r="B207" s="7"/>
+      <c r="C207" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D207" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E207" s="6">
+        <v>11.47</v>
+      </c>
+      <c r="F207" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:52">
+      <c r="A209" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E209" s="6">
+        <v>0</v>
+      </c>
+      <c r="F209" s="6">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="210" spans="1:52">
+      <c r="A210" s="6"/>
+      <c r="B210" s="7"/>
+      <c r="C210" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D210" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E210" s="6">
+        <v>0</v>
+      </c>
+      <c r="F210" s="6">
+        <v>11.62</v>
+      </c>
+    </row>
+    <row r="211" spans="1:52">
+      <c r="A211" s="6"/>
+      <c r="B211" s="7"/>
+      <c r="C211" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E211" s="6">
+        <v>12.16</v>
+      </c>
+      <c r="F211" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:52">
+      <c r="A213" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D213" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E213" s="6">
+        <v>0</v>
+      </c>
+      <c r="F213" s="6">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="214" spans="1:52">
+      <c r="A214" s="6"/>
+      <c r="B214" s="7"/>
+      <c r="C214" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D214" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E214" s="6">
+        <v>0</v>
+      </c>
+      <c r="F214" s="6">
+        <v>13.02</v>
+      </c>
+    </row>
+    <row r="215" spans="1:52">
+      <c r="A215" s="6"/>
+      <c r="B215" s="7"/>
+      <c r="C215" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D215" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E215" s="6">
+        <v>13.6</v>
+      </c>
+      <c r="F215" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:52">
+      <c r="A217" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D217" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E217" s="6">
+        <v>0</v>
+      </c>
+      <c r="F217" s="6">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="218" spans="1:52">
+      <c r="A218" s="6"/>
+      <c r="B218" s="7"/>
+      <c r="C218" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D218" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E218" s="6">
+        <v>0</v>
+      </c>
+      <c r="F218" s="6">
+        <v>10.71</v>
+      </c>
+    </row>
+    <row r="219" spans="1:52">
+      <c r="A219" s="6"/>
+      <c r="B219" s="7"/>
+      <c r="C219" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D219" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E219" s="6">
+        <v>11.15</v>
+      </c>
+      <c r="F219" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:52">
+      <c r="A221" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D221" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E221" s="6">
+        <v>0</v>
+      </c>
+      <c r="F221" s="6">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="222" spans="1:52">
+      <c r="A222" s="6"/>
+      <c r="B222" s="7"/>
+      <c r="C222" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D222" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E222" s="6">
+        <v>0</v>
+      </c>
+      <c r="F222" s="6">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="223" spans="1:52">
+      <c r="A223" s="6"/>
+      <c r="B223" s="7"/>
+      <c r="C223" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D223" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E223" s="6">
+        <v>3.52</v>
+      </c>
+      <c r="F223" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:52">
+      <c r="A225" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D225" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E225" s="6">
+        <v>0</v>
+      </c>
+      <c r="F225" s="6">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="226" spans="1:52">
+      <c r="A226" s="6"/>
+      <c r="B226" s="7"/>
+      <c r="C226" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D226" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E226" s="6">
+        <v>0</v>
+      </c>
+      <c r="F226" s="6">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="227" spans="1:52">
+      <c r="A227" s="6"/>
+      <c r="B227" s="7"/>
+      <c r="C227" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D227" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E227" s="6">
+        <v>3.62</v>
+      </c>
+      <c r="F227" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:52">
+      <c r="A229" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D229" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E229" s="6">
+        <v>0</v>
+      </c>
+      <c r="F229" s="6">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:52">
+      <c r="A230" s="6"/>
+      <c r="B230" s="7"/>
+      <c r="C230" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D230" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E230" s="6">
+        <v>0</v>
+      </c>
+      <c r="F230" s="6">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:52">
+      <c r="A231" s="6"/>
+      <c r="B231" s="7"/>
+      <c r="C231" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D231" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E231" s="6">
+        <v>0</v>
+      </c>
+      <c r="F231" s="6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:52">
+      <c r="A232" s="6"/>
+      <c r="B232" s="7"/>
+      <c r="C232" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D232" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E42">
-        <v>5068.51</v>
-      </c>
-      <c r="F42">
-        <v>5068.51</v>
+      <c r="E232" s="6">
+        <v>9.5</v>
+      </c>
+      <c r="F232" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:52">
+      <c r="A234" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D234" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E234" s="6">
+        <v>0</v>
+      </c>
+      <c r="F234" s="6">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="235" spans="1:52">
+      <c r="A235" s="6"/>
+      <c r="B235" s="7"/>
+      <c r="C235" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D235" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E235" s="6">
+        <v>0</v>
+      </c>
+      <c r="F235" s="6">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="236" spans="1:52">
+      <c r="A236" s="6"/>
+      <c r="B236" s="7"/>
+      <c r="C236" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D236" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E236" s="6">
+        <v>4.48</v>
+      </c>
+      <c r="F236" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:52">
+      <c r="A238" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D238" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E238" s="6">
+        <v>0</v>
+      </c>
+      <c r="F238" s="6">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="239" spans="1:52">
+      <c r="A239" s="6"/>
+      <c r="B239" s="7"/>
+      <c r="C239" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D239" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E239" s="6">
+        <v>0</v>
+      </c>
+      <c r="F239" s="6">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="240" spans="1:52">
+      <c r="A240" s="6"/>
+      <c r="B240" s="7"/>
+      <c r="C240" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D240" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E240" s="6">
+        <v>0</v>
+      </c>
+      <c r="F240" s="6">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="241" spans="1:52">
+      <c r="A241" s="6"/>
+      <c r="B241" s="7"/>
+      <c r="C241" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D241" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E241" s="6">
+        <v>7.94</v>
+      </c>
+      <c r="F241" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:52">
+      <c r="A243" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B243" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D243" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E243" s="6">
+        <v>0</v>
+      </c>
+      <c r="F243" s="6">
+        <v>4.73</v>
+      </c>
+    </row>
+    <row r="244" spans="1:52">
+      <c r="A244" s="6"/>
+      <c r="B244" s="7"/>
+      <c r="C244" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D244" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E244" s="6">
+        <v>0</v>
+      </c>
+      <c r="F244" s="6">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="245" spans="1:52">
+      <c r="A245" s="6"/>
+      <c r="B245" s="7"/>
+      <c r="C245" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D245" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E245" s="6">
+        <v>0</v>
+      </c>
+      <c r="F245" s="6">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="246" spans="1:52">
+      <c r="A246" s="6"/>
+      <c r="B246" s="7"/>
+      <c r="C246" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D246" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E246" s="6">
+        <v>8.15</v>
+      </c>
+      <c r="F246" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:52">
+      <c r="A248" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D248" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E248" s="6">
+        <v>100</v>
+      </c>
+      <c r="F248" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:52">
+      <c r="A249" s="6"/>
+      <c r="B249" s="7"/>
+      <c r="C249" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D249" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E249" s="6">
+        <v>0</v>
+      </c>
+      <c r="F249" s="6">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:52">
+      <c r="A250" s="6"/>
+      <c r="B250" s="7"/>
+      <c r="C250" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D250" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E250" s="6">
+        <v>1</v>
+      </c>
+      <c r="F250" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:52">
+      <c r="A252" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B252" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D252" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E252" s="6">
+        <v>12.25</v>
+      </c>
+      <c r="F252" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:52">
+      <c r="A253" s="6"/>
+      <c r="B253" s="7"/>
+      <c r="C253" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D253" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E253" s="6">
+        <v>5.36</v>
+      </c>
+      <c r="F253" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:52">
+      <c r="A254" s="6"/>
+      <c r="B254" s="7"/>
+      <c r="C254" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D254" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E254" s="6">
+        <v>8.56</v>
+      </c>
+      <c r="F254" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:52">
+      <c r="A256" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D256" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E256" s="6">
+        <v>111</v>
+      </c>
+      <c r="F256" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:52">
+      <c r="A258" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B258" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D258" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E258" s="6">
+        <v>0</v>
+      </c>
+      <c r="F258" s="6">
+        <v>4.396</v>
+      </c>
+    </row>
+    <row r="259" spans="1:52">
+      <c r="A259" s="6"/>
+      <c r="B259" s="7"/>
+      <c r="C259" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D259" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E259" s="6">
+        <v>0</v>
+      </c>
+      <c r="F259" s="6">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="260" spans="1:52">
+      <c r="A260" s="6"/>
+      <c r="B260" s="7"/>
+      <c r="C260" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D260" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E260" s="6">
+        <v>0</v>
+      </c>
+      <c r="F260" s="6">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="261" spans="1:52">
+      <c r="A261" s="6"/>
+      <c r="B261" s="7"/>
+      <c r="C261" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D261" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E261" s="6">
+        <v>11.28</v>
+      </c>
+      <c r="F261" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:52">
+      <c r="A263" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B263" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D263" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E263" s="6">
+        <v>0</v>
+      </c>
+      <c r="F263" s="6">
+        <v>2.121</v>
+      </c>
+    </row>
+    <row r="264" spans="1:52">
+      <c r="A264" s="6"/>
+      <c r="B264" s="7"/>
+      <c r="C264" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D264" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E264" s="6">
+        <v>0</v>
+      </c>
+      <c r="F264" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:52">
+      <c r="A265" s="6"/>
+      <c r="B265" s="7"/>
+      <c r="C265" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D265" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E265" s="6">
+        <v>0</v>
+      </c>
+      <c r="F265" s="6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:52">
+      <c r="A266" s="6"/>
+      <c r="B266" s="7"/>
+      <c r="C266" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D266" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E266" s="6">
+        <v>9.92</v>
+      </c>
+      <c r="F266" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:52">
+      <c r="A268" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B268" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D268" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E268" s="6">
+        <v>0</v>
+      </c>
+      <c r="F268" s="6">
+        <v>6.573</v>
+      </c>
+    </row>
+    <row r="269" spans="1:52">
+      <c r="A269" s="6"/>
+      <c r="B269" s="7"/>
+      <c r="C269" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D269" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E269" s="6">
+        <v>0</v>
+      </c>
+      <c r="F269" s="6">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="270" spans="1:52">
+      <c r="A270" s="6"/>
+      <c r="B270" s="7"/>
+      <c r="C270" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D270" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E270" s="6">
+        <v>0</v>
+      </c>
+      <c r="F270" s="6">
+        <v>18.03</v>
+      </c>
+    </row>
+    <row r="271" spans="1:52">
+      <c r="A271" s="6"/>
+      <c r="B271" s="7"/>
+      <c r="C271" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D271" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E271" s="6">
+        <v>25.54</v>
+      </c>
+      <c r="F271" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:52">
+      <c r="A273" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B273" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C273" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D273" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E273" s="6">
+        <v>0</v>
+      </c>
+      <c r="F273" s="6">
+        <v>5.831</v>
+      </c>
+    </row>
+    <row r="274" spans="1:52">
+      <c r="A274" s="6"/>
+      <c r="B274" s="7"/>
+      <c r="C274" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D274" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E274" s="6">
+        <v>0</v>
+      </c>
+      <c r="F274" s="6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:52">
+      <c r="A275" s="6"/>
+      <c r="B275" s="7"/>
+      <c r="C275" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D275" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E275" s="6">
+        <v>0</v>
+      </c>
+      <c r="F275" s="6">
+        <v>20.11</v>
+      </c>
+    </row>
+    <row r="276" spans="1:52">
+      <c r="A276" s="6"/>
+      <c r="B276" s="7"/>
+      <c r="C276" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D276" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E276" s="6">
+        <v>28.44</v>
+      </c>
+      <c r="F276" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:52">
+      <c r="A278" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B278" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C278" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D278" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E278" s="6">
+        <v>0</v>
+      </c>
+      <c r="F278" s="6">
+        <v>3.465</v>
+      </c>
+    </row>
+    <row r="279" spans="1:52">
+      <c r="A279" s="6"/>
+      <c r="B279" s="7"/>
+      <c r="C279" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D279" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E279" s="6">
+        <v>0</v>
+      </c>
+      <c r="F279" s="6">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="280" spans="1:52">
+      <c r="A280" s="6"/>
+      <c r="B280" s="7"/>
+      <c r="C280" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D280" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E280" s="6">
+        <v>0</v>
+      </c>
+      <c r="F280" s="6">
+        <v>4110.09</v>
+      </c>
+    </row>
+    <row r="281" spans="1:52">
+      <c r="A281" s="6"/>
+      <c r="B281" s="7"/>
+      <c r="C281" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D281" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E281" s="6">
+        <v>4115.05</v>
+      </c>
+      <c r="F281" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:52">
+      <c r="A283" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B283" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D283" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E283" s="6">
+        <v>0</v>
+      </c>
+      <c r="F283" s="6">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="284" spans="1:52">
+      <c r="A284" s="6"/>
+      <c r="B284" s="7"/>
+      <c r="C284" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D284" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E284" s="6">
+        <v>0</v>
+      </c>
+      <c r="F284" s="6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="285" spans="1:52">
+      <c r="A285" s="6"/>
+      <c r="B285" s="7"/>
+      <c r="C285" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D285" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E285" s="6">
+        <v>1.13</v>
+      </c>
+      <c r="F285" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:52">
+      <c r="A287" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B287" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C287" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D287" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E287" s="6">
+        <v>0</v>
+      </c>
+      <c r="F287" s="6">
+        <v>5.488</v>
+      </c>
+    </row>
+    <row r="288" spans="1:52">
+      <c r="A288" s="6"/>
+      <c r="B288" s="7"/>
+      <c r="C288" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D288" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E288" s="6">
+        <v>0</v>
+      </c>
+      <c r="F288" s="6">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="289" spans="1:52">
+      <c r="A289" s="6"/>
+      <c r="B289" s="7"/>
+      <c r="C289" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D289" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E289" s="6">
+        <v>0</v>
+      </c>
+      <c r="F289" s="6">
+        <v>10.31</v>
+      </c>
+    </row>
+    <row r="290" spans="1:52">
+      <c r="A290" s="6"/>
+      <c r="B290" s="7"/>
+      <c r="C290" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D290" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E290" s="6">
+        <v>18.15</v>
+      </c>
+      <c r="F290" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:52">
+      <c r="A292" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B292" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C292" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D292" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E292" s="6">
+        <v>1698</v>
+      </c>
+      <c r="F292" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:52">
+      <c r="A293" s="6"/>
+      <c r="B293" s="7"/>
+      <c r="C293" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D293" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E293" s="6">
+        <v>0</v>
+      </c>
+      <c r="F293" s="6">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="294" spans="1:52">
+      <c r="A294" s="6"/>
+      <c r="B294" s="7"/>
+      <c r="C294" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D294" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E294" s="6">
+        <v>135</v>
+      </c>
+      <c r="F294" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:52">
+      <c r="A295" s="6"/>
+      <c r="B295" s="7"/>
+      <c r="C295" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D295" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E295" s="6">
+        <v>0</v>
+      </c>
+      <c r="F295" s="6">
+        <v>71.28</v>
+      </c>
+    </row>
+    <row r="296" spans="1:52">
+      <c r="A296" s="6"/>
+      <c r="B296" s="7"/>
+      <c r="C296" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D296" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E296" s="6">
+        <v>0</v>
+      </c>
+      <c r="F296" s="6">
+        <v>1760.71</v>
+      </c>
+    </row>
+    <row r="298" spans="1:52">
+      <c r="A298" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B298" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C298" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D298" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E298" s="6">
+        <v>0</v>
+      </c>
+      <c r="F298" s="6">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="299" spans="1:52">
+      <c r="A299" s="6"/>
+      <c r="B299" s="7"/>
+      <c r="C299" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D299" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E299" s="6">
+        <v>0</v>
+      </c>
+      <c r="F299" s="6">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="300" spans="1:52">
+      <c r="A300" s="6"/>
+      <c r="B300" s="7"/>
+      <c r="C300" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D300" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E300" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="F300" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:52">
+      <c r="A302" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B302" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C302" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D302" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E302" s="6">
+        <v>0</v>
+      </c>
+      <c r="F302" s="6">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="303" spans="1:52">
+      <c r="A303" s="6"/>
+      <c r="B303" s="7"/>
+      <c r="C303" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D303" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E303" s="6">
+        <v>0</v>
+      </c>
+      <c r="F303" s="6">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="304" spans="1:52">
+      <c r="A304" s="6"/>
+      <c r="B304" s="7"/>
+      <c r="C304" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D304" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E304" s="6">
+        <v>2.31</v>
+      </c>
+      <c r="F304" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:52">
+      <c r="A306" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B306" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C306" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D306" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E306" s="6">
+        <v>0</v>
+      </c>
+      <c r="F306" s="6">
+        <v>59.76</v>
+      </c>
+    </row>
+    <row r="307" spans="1:52">
+      <c r="A307" s="6"/>
+      <c r="B307" s="7"/>
+      <c r="C307" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D307" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E307" s="6">
+        <v>59.76</v>
+      </c>
+      <c r="F307" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:52">
+      <c r="A309" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B309" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C309" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D309" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E309" s="6">
+        <v>0</v>
+      </c>
+      <c r="F309" s="6">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:52">
+      <c r="A310" s="6"/>
+      <c r="B310" s="7"/>
+      <c r="C310" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D310" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E310" s="6">
+        <v>0</v>
+      </c>
+      <c r="F310" s="6">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="311" spans="1:52">
+      <c r="A311" s="6"/>
+      <c r="B311" s="7"/>
+      <c r="C311" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D311" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E311" s="6">
+        <v>0</v>
+      </c>
+      <c r="F311" s="6">
+        <v>20.34</v>
+      </c>
+    </row>
+    <row r="312" spans="1:52">
+      <c r="A312" s="6"/>
+      <c r="B312" s="7"/>
+      <c r="C312" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D312" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E312" s="6">
+        <v>29.49</v>
+      </c>
+      <c r="F312" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:52">
+      <c r="D314" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E314">
+        <v>9139.3</v>
+      </c>
+      <c r="F314">
+        <v>8904.724</v>
       </c>
     </row>
   </sheetData>
